--- a/performances.xlsx
+++ b/performances.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="11740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -181,7 +193,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,7 +527,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,7 +710,7 @@
       <c r="D7" s="1">
         <v>82.17</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>81.739999999999995</v>
       </c>
       <c r="F7" s="1">
@@ -752,142 +768,142 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
         <f>AVERAGE(C4:C8)</f>
         <v>86.472000000000008</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="8">
         <f t="shared" ref="D9:E9" si="0">AVERAGE(D4:D8)</f>
         <v>82.140000000000015</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>80.796000000000006</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <f>AVERAGE(F4:F8)</f>
         <v>71.503999999999991</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <f>AVERAGE(H4:H8)</f>
         <v>92.135999999999996</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="8">
         <f t="shared" ref="I9:J9" si="1">AVERAGE(I4:I8)</f>
         <v>87.777999999999992</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="8">
         <f t="shared" si="1"/>
         <v>88.775999999999996</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="8">
         <f>AVERAGE(K4:K8)</f>
         <v>83.004000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
         <f>STDEV(C4:C8)</f>
         <v>1.1732731992166188</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8">
         <f t="shared" ref="D10:E10" si="2">STDEV(D4:D8)</f>
         <v>0.38000000000000017</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <f t="shared" si="2"/>
         <v>0.75038656704394402</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="8">
         <f>STDEV(F4:F8)</f>
         <v>0.98055086558525673</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
         <f>STDEV(H4:H8)</f>
         <v>1.5483636523762756</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="8">
         <f t="shared" ref="I10:J10" si="3">STDEV(I4:I8)</f>
         <v>0.33744629202289389</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="8">
         <f t="shared" si="3"/>
         <v>0.1641036257978444</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="8">
         <f>STDEV(K4:K8)</f>
         <v>0.25803100588882505</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8">
         <f>MAX(C4:C8)</f>
         <v>88.13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="8">
         <f t="shared" ref="D11:F11" si="4">MAX(D4:D8)</f>
         <v>82.49</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="8">
         <f t="shared" si="4"/>
         <v>81.739999999999995</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <f t="shared" si="4"/>
         <v>72.959999999999994</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <f>MAX(H4:H8)</f>
         <v>93.88</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="8">
         <f t="shared" ref="I11:K11" si="5">MAX(I4:I8)</f>
         <v>88.07</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="8">
         <f t="shared" si="5"/>
         <v>88.95</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="8">
         <f t="shared" si="5"/>
         <v>83.33</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="7">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <f>VLOOKUP(MAX(D$4:D$8),D$4:F$8, 3, FALSE)</f>
         <v>71.02</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="7">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11">
         <f>VLOOKUP(MAX(I$4:I$8),I$4:K$8, 3, FALSE)</f>
         <v>83.1</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/performances.xlsx
+++ b/performances.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28303"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>BiLSTM CRF</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>SemEval</t>
-  </si>
-  <si>
     <t>Epoch</t>
   </si>
   <si>
@@ -78,13 +75,16 @@
   </si>
   <si>
     <t>Run 5</t>
+  </si>
+  <si>
+    <t>BiLSTM CRF + POS + NER + WN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,8 +109,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,7 +117,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color rgb="FF242729"/>
       <name val="Consolas"/>
       <family val="2"/>
@@ -150,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,6 +180,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -181,23 +197,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -222,16 +277,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -524,394 +579,654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="E4" s="6">
+        <v>72.78</v>
+      </c>
+      <c r="F4" s="6">
+        <v>74.33</v>
+      </c>
+      <c r="G4" s="7">
+        <v>59</v>
+      </c>
+      <c r="H4" s="8">
+        <v>89.85</v>
+      </c>
+      <c r="I4" s="18">
+        <v>84.07</v>
+      </c>
+      <c r="J4" s="18">
+        <v>84.09</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6">
+        <v>80.41</v>
+      </c>
+      <c r="E5" s="6">
+        <v>71.89</v>
+      </c>
+      <c r="F5" s="6">
+        <v>74.56</v>
+      </c>
+      <c r="G5" s="5">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6">
+        <v>85.12</v>
+      </c>
+      <c r="I5" s="6">
+        <v>82.93</v>
+      </c>
+      <c r="J5" s="6">
+        <v>83.91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8">
+        <v>92.28</v>
+      </c>
+      <c r="E6" s="8">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="F6" s="8">
+        <v>76.48</v>
+      </c>
+      <c r="G6" s="14">
+        <v>34</v>
+      </c>
+      <c r="H6" s="15">
+        <v>87.33</v>
+      </c>
+      <c r="I6" s="15">
+        <v>83.71</v>
+      </c>
+      <c r="J6" s="15">
+        <v>84.03</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45</v>
+      </c>
+      <c r="D7" s="6">
+        <v>86.73</v>
+      </c>
+      <c r="E7" s="6">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="F7" s="6">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="G7" s="14">
+        <v>26</v>
+      </c>
+      <c r="H7" s="15">
+        <v>84.71</v>
+      </c>
+      <c r="I7" s="15">
+        <v>82.87</v>
+      </c>
+      <c r="J7" s="15">
+        <v>83.96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6">
+        <v>87.7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>74.55</v>
+      </c>
+      <c r="F8" s="6">
+        <v>74.290000000000006</v>
+      </c>
+      <c r="G8" s="14">
+        <v>48</v>
+      </c>
+      <c r="H8" s="6">
+        <v>89.65</v>
+      </c>
+      <c r="I8" s="17">
+        <v>84.5</v>
+      </c>
+      <c r="J8" s="17">
+        <v>84.83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
+        <f>AVERAGE(D4:D8)</f>
+        <v>85.531999999999996</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9:F9" si="0">AVERAGE(E4:E8)</f>
+        <v>73.656000000000006</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>75.140000000000015</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11">
+        <f>AVERAGE(H4:H8)</f>
+        <v>87.331999999999994</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" ref="I9:J9" si="1">AVERAGE(I4:I8)</f>
+        <v>83.616</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>84.164000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11">
+        <f>STDEV(D4:D8)</f>
+        <v>5.0701548299830055</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" ref="E10:F10" si="2">STDEV(E4:E8)</f>
+        <v>1.252788888839613</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>1.03930265081929</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11">
+        <f>STDEV(H4:H8)</f>
+        <v>2.4228743260846204</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" ref="I10:J10" si="3">STDEV(I4:I8)</f>
+        <v>0.7112524165161016</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="3"/>
+        <v>0.37852344709410052</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11">
+        <f>MAX(D4:D8)</f>
+        <v>92.28</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" ref="E11:F11" si="4">MAX(E4:E8)</f>
+        <v>74.709999999999994</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="4"/>
+        <v>76.48</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11">
+        <f>MAX(H4:H8)</f>
+        <v>89.85</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" ref="I11:J11" si="5">MAX(I4:I8)</f>
+        <v>84.5</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="5"/>
+        <v>84.83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21">
+        <f>VLOOKUP(MAX(E$4:E$8),E$4:F$8, 2, FALSE)</f>
+        <v>76.48</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
+        <f>VLOOKUP(MAX(I$4:I$8),I$4:J$8, 2, FALSE)</f>
+        <v>84.83</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="14">
+        <v>46</v>
+      </c>
+      <c r="D19" s="15">
+        <v>89.6</v>
+      </c>
+      <c r="E19" s="15">
+        <v>76.39</v>
+      </c>
+      <c r="F19" s="15">
+        <v>75.89</v>
+      </c>
+      <c r="G19" s="14">
+        <v>49</v>
+      </c>
+      <c r="H19" s="15">
+        <v>90.9</v>
+      </c>
+      <c r="I19" s="15">
+        <v>84.5</v>
+      </c>
+      <c r="J19" s="15">
+        <v>84.28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="14">
+        <v>29</v>
+      </c>
+      <c r="D20" s="15">
+        <v>84.29</v>
+      </c>
+      <c r="E20" s="15">
+        <v>75.73</v>
+      </c>
+      <c r="F20" s="15">
+        <v>76.52</v>
+      </c>
+      <c r="G20" s="14">
+        <v>35</v>
+      </c>
+      <c r="H20" s="15">
+        <v>87.04</v>
+      </c>
+      <c r="I20" s="15">
+        <v>84.21</v>
+      </c>
+      <c r="J20" s="15">
+        <v>83.53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14">
+        <v>56</v>
+      </c>
+      <c r="D21" s="19">
+        <v>92.47</v>
+      </c>
+      <c r="E21" s="15">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="F21" s="19">
+        <v>77.290000000000006</v>
+      </c>
+      <c r="G21" s="14">
+        <v>40</v>
+      </c>
+      <c r="H21" s="15">
+        <v>89.6</v>
+      </c>
+      <c r="I21" s="15">
+        <v>84.32</v>
+      </c>
+      <c r="J21" s="15">
+        <v>84.85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14">
+        <v>50</v>
+      </c>
+      <c r="D22" s="15">
+        <v>89.83</v>
+      </c>
+      <c r="E22" s="15">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="F22" s="15">
+        <v>76.84</v>
+      </c>
+      <c r="G22" s="14">
+        <v>44</v>
+      </c>
+      <c r="H22" s="15">
+        <v>89.31</v>
+      </c>
+      <c r="I22" s="15">
+        <v>84.05</v>
+      </c>
+      <c r="J22" s="15">
+        <v>84.73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7">
+        <v>46</v>
+      </c>
+      <c r="D23" s="18">
+        <v>89.09</v>
+      </c>
+      <c r="E23" s="8">
+        <v>77.34</v>
+      </c>
+      <c r="F23" s="18">
+        <v>76.5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>76</v>
+      </c>
+      <c r="H23" s="8">
+        <v>95.53</v>
+      </c>
+      <c r="I23" s="8">
+        <v>84.51</v>
+      </c>
+      <c r="J23" s="8">
+        <v>85.52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>85.48</v>
-      </c>
-      <c r="D4" s="1">
-        <v>82.04</v>
-      </c>
-      <c r="E4" s="1">
-        <v>80.86</v>
-      </c>
-      <c r="F4" s="1">
-        <v>71.3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2">
-        <v>93.88</v>
-      </c>
-      <c r="I4" s="1">
-        <v>88.02</v>
-      </c>
-      <c r="J4" s="1">
-        <v>88.68</v>
-      </c>
-      <c r="K4" s="2">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>85.32</v>
-      </c>
-      <c r="D5" s="1">
-        <v>81.55</v>
-      </c>
-      <c r="E5" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>70.36</v>
-      </c>
-      <c r="G5" s="3">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3">
-        <v>92.73</v>
-      </c>
-      <c r="I5" s="4">
-        <v>88.07</v>
-      </c>
-      <c r="J5" s="4">
-        <v>88.95</v>
-      </c>
-      <c r="K5" s="3">
-        <v>83.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2">
-        <v>88.13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>82.45</v>
-      </c>
-      <c r="E6" s="1">
-        <v>81.239999999999995</v>
-      </c>
-      <c r="F6" s="2">
-        <v>72.959999999999994</v>
-      </c>
-      <c r="G6" s="1">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1">
-        <v>93.05</v>
-      </c>
-      <c r="I6" s="1">
-        <v>87.98</v>
-      </c>
-      <c r="J6" s="1">
-        <v>88.86</v>
-      </c>
-      <c r="K6" s="1">
-        <v>83.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>87.12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>82.17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>81.739999999999995</v>
-      </c>
-      <c r="F7" s="1">
-        <v>71.88</v>
-      </c>
-      <c r="G7" s="1">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1">
-        <v>90.7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>87.41</v>
-      </c>
-      <c r="J7" s="1">
-        <v>88.54</v>
-      </c>
-      <c r="K7" s="1">
-        <v>82.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3">
-        <v>86.31</v>
-      </c>
-      <c r="D8" s="4">
-        <v>82.49</v>
-      </c>
-      <c r="E8" s="3">
-        <v>79.84</v>
-      </c>
-      <c r="F8" s="3">
-        <v>71.02</v>
-      </c>
-      <c r="G8" s="1">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1">
-        <v>90.32</v>
-      </c>
-      <c r="I8" s="1">
-        <v>87.41</v>
-      </c>
-      <c r="J8" s="1">
-        <v>88.85</v>
-      </c>
-      <c r="K8" s="1">
-        <v>82.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11">
+        <f>AVERAGE(D19:D23)</f>
+        <v>89.055999999999997</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" ref="E24:F24" si="6">AVERAGE(E19:E23)</f>
+        <v>76.27000000000001</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="6"/>
+        <v>76.60799999999999</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11">
+        <f>AVERAGE(H19:H23)</f>
+        <v>90.475999999999999</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" ref="I24:J24" si="7">AVERAGE(I19:I23)</f>
+        <v>84.317999999999998</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="7"/>
+        <v>84.581999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8">
-        <f>AVERAGE(C4:C8)</f>
-        <v>86.472000000000008</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:E9" si="0">AVERAGE(D4:D8)</f>
-        <v>82.140000000000015</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>80.796000000000006</v>
-      </c>
-      <c r="F9" s="8">
-        <f>AVERAGE(F4:F8)</f>
-        <v>71.503999999999991</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <f>AVERAGE(H4:H8)</f>
-        <v>92.135999999999996</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" ref="I9:J9" si="1">AVERAGE(I4:I8)</f>
-        <v>87.777999999999992</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="1"/>
-        <v>88.775999999999996</v>
-      </c>
-      <c r="K9" s="8">
-        <f>AVERAGE(K4:K8)</f>
-        <v>83.004000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11">
+        <f>STDEV(D19:D23)</f>
+        <v>2.969272638206196</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" ref="E25:F25" si="8">STDEV(E19:E23)</f>
+        <v>0.69702941114418049</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="8"/>
+        <v>0.51329328848135403</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11">
+        <f>STDEV(H19:H23)</f>
+        <v>3.1486393886883892</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" ref="I25:J25" si="9">STDEV(I19:I23)</f>
+        <v>0.19588261791185352</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="9"/>
+        <v>0.73679712268710496</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8">
-        <f>STDEV(C4:C8)</f>
-        <v>1.1732731992166188</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" ref="D10:E10" si="2">STDEV(D4:D8)</f>
-        <v>0.38000000000000017</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="2"/>
-        <v>0.75038656704394402</v>
-      </c>
-      <c r="F10" s="8">
-        <f>STDEV(F4:F8)</f>
-        <v>0.98055086558525673</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <f>STDEV(H4:H8)</f>
-        <v>1.5483636523762756</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" ref="I10:J10" si="3">STDEV(I4:I8)</f>
-        <v>0.33744629202289389</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>0.1641036257978444</v>
-      </c>
-      <c r="K10" s="8">
-        <f>STDEV(K4:K8)</f>
-        <v>0.25803100588882505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11">
+        <f>MAX(D19:D23)</f>
+        <v>92.47</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" ref="E26:F26" si="10">MAX(E19:E23)</f>
+        <v>77.34</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="10"/>
+        <v>77.290000000000006</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11">
+        <f>MAX(H19:H23)</f>
+        <v>95.53</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" ref="I26:J26" si="11">MAX(I19:I23)</f>
+        <v>84.51</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="11"/>
+        <v>85.52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8">
-        <f>MAX(C4:C8)</f>
-        <v>88.13</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" ref="D11:F11" si="4">MAX(D4:D8)</f>
-        <v>82.49</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="4"/>
-        <v>81.739999999999995</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="4"/>
-        <v>72.959999999999994</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <f>MAX(H4:H8)</f>
-        <v>93.88</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" ref="I11:K11" si="5">MAX(I4:I8)</f>
-        <v>88.07</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="5"/>
-        <v>88.95</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" si="5"/>
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
-        <f>VLOOKUP(MAX(D$4:D$8),D$4:F$8, 3, FALSE)</f>
-        <v>71.02</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11">
-        <f>VLOOKUP(MAX(I$4:I$8),I$4:K$8, 3, FALSE)</f>
-        <v>83.1</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="C27" s="21">
+        <f>VLOOKUP(MAX(E$19:E$23),E$19:F$23, 2, FALSE)</f>
+        <v>76.5</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21">
+        <f>VLOOKUP(MAX(I$19:I$23),I$19:J$23, 2, FALSE)</f>
+        <v>85.52</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G2:K2"/>
+  <mergeCells count="10">
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
